--- a/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,73; 78,2</t>
+          <t>53,25; 78,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,76; 88,58</t>
+          <t>66,63; 88,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64,58; 81,58</t>
+          <t>65,05; 81,79</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,11; 83,34</t>
+          <t>68,77; 83,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,69; 84,16</t>
+          <t>69,22; 84,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,45; 81,61</t>
+          <t>71,81; 81,86</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,12; 78,05</t>
+          <t>62,19; 78,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,18; 75,62</t>
+          <t>57,25; 74,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,71; 74,34</t>
+          <t>62,33; 74,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,44; 81,26</t>
+          <t>65,05; 80,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>70,71; 84,43</t>
+          <t>70,88; 84,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,88; 81,41</t>
+          <t>70,65; 81,14</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,94; 77,38</t>
+          <t>69,16; 77,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,44; 79,01</t>
+          <t>70,53; 78,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71,07; 76,89</t>
+          <t>70,92; 76,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>67,29%</t>
+          <t>79,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>68,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>74,12%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,25; 78,83</t>
+          <t>66,69; 89,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,63; 88,83</t>
+          <t>54,6; 80,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,05; 81,79</t>
+          <t>65,78; 81,6</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>77,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,92%</t>
+          <t>76,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,79%</t>
+          <t>76,62%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,77; 83,28</t>
+          <t>69,19; 84,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,22; 84,11</t>
+          <t>68,17; 82,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,81; 81,86</t>
+          <t>70,68; 81,58</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66,32%</t>
+          <t>69,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,78%</t>
+          <t>68,71%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,19; 78,04</t>
+          <t>57,21; 75,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,25; 74,66</t>
+          <t>61,34; 78,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,33; 74,72</t>
+          <t>63,01; 74,62</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>74,71%</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,02%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>77,62%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,05; 80,82</t>
+          <t>73,76; 90,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>70,88; 84,24</t>
+          <t>63,3; 80,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,65; 81,14</t>
+          <t>71,7; 83,78</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>76,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>74,71%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>74,03%</t>
+          <t>74,6%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69,16; 77,48</t>
+          <t>71,87; 82,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>70,53; 78,98</t>
+          <t>68,13; 77,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,92; 76,87</t>
+          <t>71,32; 78,33</t>
         </is>
       </c>
     </row>
